--- a/data/processed/validacao_app_passos_magicos.xlsx
+++ b/data/processed/validacao_app_passos_magicos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26d8c550aeac6b59/Cursos/Pós Graduação/Data Analytics - FIAP/07 - Fase 5 - Deep Learning and Unstructured Data/projeto_datathon/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_2B59D2BFD350DA873C481AD04B1880F3606BD305" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C27D48A-9D91-47FC-A7B7-CA39C10C2F70}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_7AE990A2D3805CD2C02A08D04B5ED87656CD953A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDB1701F-45BF-4DCA-93E5-18588A6A2782}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>Idade</t>
   </si>
@@ -61,6 +61,15 @@
     <t>INDE do ano passado</t>
   </si>
   <si>
+    <t>Indicador de Desempenho Acad. (IDA)</t>
+  </si>
+  <si>
+    <t>Indicador de Ponto de Virada (IPV)</t>
+  </si>
+  <si>
+    <t>Número de Avaliações</t>
+  </si>
+  <si>
     <t>Threshold do Modelo</t>
   </si>
   <si>
@@ -73,70 +82,85 @@
     <t>Recomendação App</t>
   </si>
   <si>
+    <t>Menino</t>
+  </si>
+  <si>
+    <t>ALFA  (2º e 3º ano)</t>
+  </si>
+  <si>
+    <t>0.8%</t>
+  </si>
+  <si>
+    <t>✅ ALUNO NO CAMINHO CERTO (BAIXO RISCO)</t>
+  </si>
+  <si>
+    <t>👉 Recomendação: Manter acompanhamento padrão para garantir o engajamento.</t>
+  </si>
+  <si>
+    <t>Fase 6 (2º EM)</t>
+  </si>
+  <si>
+    <t>94.8%</t>
+  </si>
+  <si>
+    <t>⚠️ ALTO RISCO DE DEFASAGEM IDENTIFICADO</t>
+  </si>
+  <si>
+    <t>👉 Recomendação: Necessário acompanhamento pedagógico e psicossocial intensificado.</t>
+  </si>
+  <si>
     <t>Masculino</t>
   </si>
   <si>
+    <t>Fase 7 (3° EM)</t>
+  </si>
+  <si>
+    <t>44.8%</t>
+  </si>
+  <si>
+    <t>0.2%</t>
+  </si>
+  <si>
+    <t>Feminino</t>
+  </si>
+  <si>
     <t>Fase 3 (7° e 8° ano)</t>
   </si>
   <si>
-    <t>95.8%</t>
-  </si>
-  <si>
-    <t>⚠️ ALTO RISCO DE DEFASAGEM IDENTIFICADO</t>
-  </si>
-  <si>
-    <t>👉 Recomendação: Necessário acompanhamento pedagógico e psicossocial intensificado.</t>
+    <t>92.8%</t>
+  </si>
+  <si>
+    <t>Fase 1 (3° e 4° ano)</t>
+  </si>
+  <si>
+    <t>87.5%</t>
+  </si>
+  <si>
+    <t>Fase 2 (5° e 6° ano)</t>
+  </si>
+  <si>
+    <t>93.2%</t>
+  </si>
+  <si>
+    <t>Fase 2 (5º e 6º ano)</t>
+  </si>
+  <si>
+    <t>93.0%</t>
+  </si>
+  <si>
+    <t>Fase 4 (9° ano)</t>
+  </si>
+  <si>
+    <t>44.2%</t>
   </si>
   <si>
     <t>Menina</t>
   </si>
   <si>
-    <t>Fase 1 (4º ano)</t>
-  </si>
-  <si>
-    <t>4.0%</t>
-  </si>
-  <si>
-    <t>✅ ALUNO NO CAMINHO CERTO (BAIXO RISCO)</t>
-  </si>
-  <si>
-    <t>👉 Recomendação: Manter acompanhamento padrão para garantir o engajamento.</t>
-  </si>
-  <si>
-    <t>45.8%</t>
-  </si>
-  <si>
-    <t>Feminino</t>
-  </si>
-  <si>
-    <t>Fase 1 (3° e 4° ano)</t>
-  </si>
-  <si>
-    <t>49.8%</t>
-  </si>
-  <si>
-    <t>45.5%</t>
-  </si>
-  <si>
-    <t>Menino</t>
-  </si>
-  <si>
-    <t>92.5%</t>
-  </si>
-  <si>
-    <t>Fase 6 (2° EM)</t>
-  </si>
-  <si>
-    <t>83.5%</t>
-  </si>
-  <si>
-    <t>Fase 2 (5° e 6° ano)</t>
-  </si>
-  <si>
-    <t>50.0%</t>
-  </si>
-  <si>
-    <t>77.0%</t>
+    <t>Fase 4 (9º ano)</t>
+  </si>
+  <si>
+    <t>95.5%</t>
   </si>
 </sst>
 </file>
@@ -508,18 +532,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
@@ -529,14 +552,17 @@
     <col min="11" max="11" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="76.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="33.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="41" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="76.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,466 +614,559 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2">
-        <v>7.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E2" s="2">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="G2" s="2">
-        <v>9.0020000000000007</v>
+        <v>9</v>
       </c>
       <c r="H2" s="2">
-        <v>8.5930735929999997</v>
-      </c>
-      <c r="I2" s="2">
-        <v>7.7475647186000014</v>
+        <v>8.1</v>
       </c>
       <c r="J2" s="2">
-        <v>7.51</v>
-      </c>
-      <c r="K2" s="2">
-        <v>8.4375</v>
+        <v>5.6</v>
+      </c>
+      <c r="L2" s="2">
+        <v>7.4969999999999999</v>
       </c>
       <c r="N2" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="2" t="s">
+        <v>7.4</v>
+      </c>
+      <c r="O2" s="2">
+        <v>7.3330000000000002</v>
+      </c>
+      <c r="P2" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="H3" s="2">
-        <v>9.6999999999999993</v>
+        <v>3.3</v>
       </c>
       <c r="J3" s="2">
         <v>7.5</v>
       </c>
       <c r="L3" s="2">
-        <v>7.7919999999999998</v>
+        <v>4.9889999999999999</v>
       </c>
       <c r="N3" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="O3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2">
+        <v>5.8330000000000002</v>
+      </c>
+      <c r="P3" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9.1679999999999993</v>
+      </c>
+      <c r="H4" s="2">
+        <v>7.7536979706666669</v>
+      </c>
+      <c r="I4" s="2">
+        <v>6.7023729275666666</v>
+      </c>
+      <c r="J4" s="2">
+        <v>7.51</v>
+      </c>
+      <c r="K4" s="2">
+        <v>7.2916666670000003</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="O4" s="2">
+        <v>6.1066666669999998</v>
+      </c>
+      <c r="P4" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="L5" s="2">
+        <v>8.2639999999999993</v>
+      </c>
+      <c r="N5" s="2">
+        <v>8</v>
+      </c>
+      <c r="O5" s="2">
+        <v>8.6669999999999998</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>8.3339999999999996</v>
-      </c>
-      <c r="H4" s="2">
-        <v>6.8300751879999986</v>
-      </c>
-      <c r="I4" s="2">
-        <v>6.3467483709000003</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="K4" s="2">
-        <v>7.0833333329999997</v>
-      </c>
-      <c r="L4" s="2">
-        <v>7.6607162857142859</v>
-      </c>
-      <c r="M4" s="2">
-        <v>7.5762</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
         <v>8.5</v>
       </c>
-      <c r="G5" s="2">
-        <v>9.5020000000000007</v>
-      </c>
-      <c r="H5" s="2">
-        <v>8.1136363634999995</v>
-      </c>
-      <c r="I5" s="2">
-        <v>7.8769272727000006</v>
-      </c>
-      <c r="J5" s="2">
-        <v>6.26</v>
-      </c>
-      <c r="K5" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2">
-        <v>6</v>
-      </c>
       <c r="G6" s="2">
-        <v>9.0020000000000007</v>
+        <v>8.5020000000000007</v>
       </c>
       <c r="H6" s="2">
-        <v>7.0108695650000001</v>
+        <v>5.6428571430000014</v>
       </c>
       <c r="I6" s="2">
-        <v>6.6513739129999996</v>
+        <v>6.5786047620000003</v>
       </c>
       <c r="J6" s="2">
         <v>6.26</v>
       </c>
       <c r="K6" s="2">
-        <v>6.25</v>
+        <v>8.125</v>
+      </c>
+      <c r="L6" s="2">
+        <v>5.2627171168831168</v>
       </c>
       <c r="M6" s="2">
-        <v>7.5366999999999997</v>
+        <v>6.3971999999999998</v>
       </c>
       <c r="N6" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>21</v>
+        <v>5.25</v>
+      </c>
+      <c r="O6" s="2">
+        <v>8.056666667</v>
+      </c>
+      <c r="P6" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2">
-        <v>9</v>
+        <v>9.5020000000000007</v>
       </c>
       <c r="H7" s="2">
-        <v>7.9</v>
+        <v>10</v>
+      </c>
+      <c r="I7" s="2">
+        <v>8.3422000000000001</v>
       </c>
       <c r="J7" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="L7" s="2">
-        <v>6.04</v>
+        <v>7.51</v>
+      </c>
+      <c r="K7" s="2">
+        <v>8.75</v>
+      </c>
+      <c r="M7" s="2">
+        <v>7.9535</v>
       </c>
       <c r="N7" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>21</v>
+        <v>8.5</v>
+      </c>
+      <c r="O7" s="2">
+        <v>7.83</v>
+      </c>
+      <c r="P7" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2">
         <v>5.2</v>
       </c>
       <c r="E8" s="2">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="G8" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>9.1999999999999993</v>
+        <v>9.1</v>
       </c>
       <c r="J8" s="2">
         <v>7.52</v>
       </c>
       <c r="K8" s="2">
+        <v>6.875</v>
+      </c>
+      <c r="L8" s="2">
+        <v>7.5179999999999998</v>
+      </c>
+      <c r="M8" s="2">
+        <v>6.5854999999999997</v>
+      </c>
+      <c r="N8" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="O8" s="2">
+        <v>7.78</v>
+      </c>
+      <c r="P8" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J9" s="2">
         <v>7.5</v>
       </c>
-      <c r="L8" s="2">
-        <v>7.335</v>
-      </c>
-      <c r="M8" s="2">
-        <v>7.9842000000000004</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="O8" s="2" t="s">
+      <c r="L9" s="2">
+        <v>6.6319999999999997</v>
+      </c>
+      <c r="N9" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="O9" s="2">
+        <v>6.1669999999999998</v>
+      </c>
+      <c r="P9" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="E9" s="2">
-        <v>5.8</v>
-      </c>
-      <c r="F9" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G9" s="2">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="H9" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="J9" s="2">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2">
-        <v>8.125</v>
-      </c>
-      <c r="L9" s="2">
-        <v>7.6189999999999998</v>
-      </c>
-      <c r="M9" s="2">
-        <v>6.9896333329999996</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2">
         <v>9</v>
       </c>
       <c r="E10" s="2">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="F10" s="2">
+        <v>9.5</v>
       </c>
       <c r="G10" s="2">
-        <v>6.4180000000000001</v>
+        <v>9.5850000000000009</v>
       </c>
       <c r="H10" s="2">
-        <v>10</v>
+        <v>9.5454545453333335</v>
       </c>
       <c r="I10" s="2">
-        <v>7.8661333334000014</v>
+        <v>8.8286325757333337</v>
       </c>
       <c r="J10" s="2">
-        <v>7.51</v>
+        <v>6.26</v>
       </c>
       <c r="K10" s="2">
+        <v>8.59375</v>
+      </c>
+      <c r="L10" s="2">
+        <v>8.4272698001949315</v>
+      </c>
+      <c r="M10" s="2">
+        <v>8.3168333329999999</v>
+      </c>
+      <c r="N10" s="2">
+        <v>8.8333333333333339</v>
+      </c>
+      <c r="O10" s="2">
+        <v>8.5449999999999999</v>
+      </c>
+      <c r="P10" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H11" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="J11" s="2">
         <v>7.5</v>
       </c>
-      <c r="M10" s="2">
-        <v>8.4216999999999995</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="G11" s="2">
-        <v>9.0020000000000007</v>
-      </c>
-      <c r="H11" s="2">
-        <v>6.1363636359999996</v>
-      </c>
-      <c r="I11" s="2">
-        <v>6.5335560605999996</v>
-      </c>
-      <c r="J11" s="2">
-        <v>4.38</v>
-      </c>
-      <c r="K11" s="2">
-        <v>7.1875</v>
-      </c>
-      <c r="M11" s="2">
-        <v>6.24</v>
+      <c r="L11" s="2">
+        <v>5.6790000000000003</v>
       </c>
       <c r="N11" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="O11" s="2">
+        <v>5.8330000000000002</v>
+      </c>
+      <c r="P11" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed/validacao_app_passos_magicos.xlsx
+++ b/data/processed/validacao_app_passos_magicos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/26d8c550aeac6b59/Cursos/Pós Graduação/Data Analytics - FIAP/07 - Fase 5 - Deep Learning and Unstructured Data/projeto_datathon/data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_7AE990A2D3805CD2C02A08D04B5ED87656CD953A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDB1701F-45BF-4DCA-93E5-18588A6A2782}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_7AE990A2D3805CD2C02A08D04B5ED87656CD953A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3C418B4-0ADE-4505-944B-9895EC414043}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,7 +168,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -227,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -245,6 +245,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
